--- a/excel_generado/formato_odontologia_FEBRERO.xlsx
+++ b/excel_generado/formato_odontologia_FEBRERO.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AE53"/>
+  <dimension ref="A1:AE54"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -961,7 +961,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>10585509416</v>
+        <v>1058550941</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -5184,21 +5184,21 @@
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>ODON-0000040</t>
+          <t>ODON-0000005</t>
         </is>
       </c>
       <c r="B53" t="n">
-        <v>1004248603</v>
+        <v>1058550941</v>
       </c>
       <c r="C53" t="inlineStr">
         <is>
-          <t>BRESLI TATIANA LEGARDA</t>
+          <t>EMANUEL GAON MELLIZO</t>
         </is>
       </c>
       <c r="D53" t="inlineStr"/>
       <c r="E53" t="inlineStr">
         <is>
-          <t>PARTICULAR</t>
+          <t>PREVIRED</t>
         </is>
       </c>
       <c r="F53" t="inlineStr">
@@ -5221,17 +5221,17 @@
       </c>
       <c r="J53" t="inlineStr">
         <is>
-          <t>Laura Mosquera</t>
+          <t>LINA ACOSTA</t>
         </is>
       </c>
       <c r="K53" t="inlineStr">
         <is>
-          <t>ALEXANDRA DE LA CADENA</t>
+          <t>MARLEN MUÑOZ</t>
         </is>
       </c>
       <c r="L53" t="inlineStr">
         <is>
-          <t>Odontologia General</t>
+          <t>Ortodoncia</t>
         </is>
       </c>
       <c r="M53" t="inlineStr"/>
@@ -5252,14 +5252,10 @@
       <c r="R53" t="inlineStr"/>
       <c r="S53" t="inlineStr"/>
       <c r="T53" t="inlineStr"/>
-      <c r="U53" t="inlineStr">
-        <is>
-          <t>FEOD 1005</t>
-        </is>
-      </c>
+      <c r="U53" t="inlineStr"/>
       <c r="V53" t="inlineStr">
         <is>
-          <t>Transferencia Bancaria</t>
+          <t>Efectivo</t>
         </is>
       </c>
       <c r="W53" t="inlineStr">
@@ -5271,13 +5267,110 @@
       <c r="Y53" t="inlineStr"/>
       <c r="Z53" t="inlineStr"/>
       <c r="AA53" t="n">
-        <v>30000</v>
+        <v>275000</v>
       </c>
       <c r="AB53" t="inlineStr"/>
       <c r="AC53" t="inlineStr"/>
       <c r="AD53" t="inlineStr"/>
       <c r="AE53" t="inlineStr"/>
     </row>
+    <row r="54">
+      <c r="A54" t="inlineStr">
+        <is>
+          <t>ODON-0000040</t>
+        </is>
+      </c>
+      <c r="B54" t="n">
+        <v>1004248603</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>BRESLI TATIANA LEGARDA</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr"/>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>PARTICULAR</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>04/02/2026</t>
+        </is>
+      </c>
+      <c r="G54" t="n">
+        <v>2026</v>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>FEBRERO</t>
+        </is>
+      </c>
+      <c r="I54" t="inlineStr">
+        <is>
+          <t>SEMANA1</t>
+        </is>
+      </c>
+      <c r="J54" t="inlineStr">
+        <is>
+          <t>Laura Mosquera</t>
+        </is>
+      </c>
+      <c r="K54" t="inlineStr">
+        <is>
+          <t>ALEXANDRA DE LA CADENA</t>
+        </is>
+      </c>
+      <c r="L54" t="inlineStr">
+        <is>
+          <t>Odontologia General</t>
+        </is>
+      </c>
+      <c r="M54" t="inlineStr"/>
+      <c r="N54" t="inlineStr">
+        <is>
+          <t>Procedimiento</t>
+        </is>
+      </c>
+      <c r="O54" t="n">
+        <v>1</v>
+      </c>
+      <c r="P54" t="n">
+        <v>1</v>
+      </c>
+      <c r="Q54" t="n">
+        <v>1</v>
+      </c>
+      <c r="R54" t="inlineStr"/>
+      <c r="S54" t="inlineStr"/>
+      <c r="T54" t="inlineStr"/>
+      <c r="U54" t="inlineStr">
+        <is>
+          <t>FEOD 1005</t>
+        </is>
+      </c>
+      <c r="V54" t="inlineStr">
+        <is>
+          <t>Transferencia Bancaria</t>
+        </is>
+      </c>
+      <c r="W54" t="inlineStr">
+        <is>
+          <t>LINA ACOSTA</t>
+        </is>
+      </c>
+      <c r="X54" t="inlineStr"/>
+      <c r="Y54" t="inlineStr"/>
+      <c r="Z54" t="inlineStr"/>
+      <c r="AA54" t="n">
+        <v>30000</v>
+      </c>
+      <c r="AB54" t="inlineStr"/>
+      <c r="AC54" t="inlineStr"/>
+      <c r="AD54" t="inlineStr"/>
+      <c r="AE54" t="inlineStr"/>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
